--- a/medicine/Psychotrope/Calcul_des_titres_et_des_volumes_d'alcools/Calcul_des_titres_et_des_volumes_d'alcools.xlsx
+++ b/medicine/Psychotrope/Calcul_des_titres_et_des_volumes_d'alcools/Calcul_des_titres_et_des_volumes_d'alcools.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calcul_des_titres_et_des_volumes_d%27alcools</t>
+          <t>Calcul_des_titres_et_des_volumes_d'alcools</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calcul des titres et des volumes d'alcools est utilisé en distillation pour prédire le volume final et le titre alcoolique résultant d'un mélange de deux liquides hydro-alcooliques. La différence de force des liaisons intermoléculaires (liaisons hydrogène) entre les molécules d'eau et les molécules d'alcool (éthanol) entraîne des variations de volume massique en fonction du titre alcoolique qui doivent être prises en compte. La table des densités, utile aussi pour les pesées d'alcool, permet de calculer ces variations de volume massique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calcul_des_titres_et_des_volumes_d%27alcools</t>
+          <t>Calcul_des_titres_et_des_volumes_d'alcools</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,50 @@
           <t>Alcoométrie volumique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle alcool une solution hydro-alcoolique dont le titre en éthanol varie de 0 à 100 %. On nomme Ρ sa masse volumique et T son titre en pourcentage volumique à 20 °C (noté °). À 20 °C la masse volumique de l'air vaut 1,20 g/l à la pression normale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On appelle alcool une solution hydro-alcoolique dont le titre en éthanol varie de 0 à 100 %. On nomme Ρ sa masse volumique et T son titre en pourcentage volumique à 20 °C (noté °). À 20 °C la masse volumique de l'air vaut 1,20 g/l à la pression normale.
 Masse volumique à 20 °C de l'alcool à 66,80° = 89409 -- 3/5 (89409-89289) = 89337 cg/l.
 Le mélange d'un volume V1 d'alcool de titre T1 et d'un volume V2 d'alcool de titre T2 donne, après refroidissement et dissipation des bulles d'air, un alcool de titre T de volume V inférieur à V1+V2. On dit qu'un alcool a été réduit ou l'autre remonté. Les volumes étant à la température du titre (20 °C), la définition des titres et des masses volumiques conduit à deux égalités qui expriment la conservation du volume d'alcool pur extractible et la conservation de la masse :
-TV = T1V1 + T2V2 et ΡV = Ρ1V1 + Ρ2V2
-Calcul de deux volumes
-Si l'on exprime V2 avec la première égalité et avec la seconde on obtient une équation sans V2 d'où l'on tire V1 ,et ensuite V2 en permutant les indices :
+TV = T1V1 + T2V2 et ΡV = Ρ1V1 + Ρ2V2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Calcul_des_titres_et_des_volumes_d'alcools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calcul_des_titres_et_des_volumes_d%27alcools</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Alcoométrie volumique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Calcul de deux volumes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si l'on exprime V2 avec la première égalité et avec la seconde on obtient une équation sans V2 d'où l'on tire V1 ,et ensuite V2 en permutant les indices :
           V
             1
         =
@@ -713,8 +761,43 @@
           %
     {\displaystyle \textstyle 1-{\frac {T_{1}P_{2}\ -\ T_{2}P_{1}}{T(P_{2}-P_{1})\ +\ P(T_{1}-T_{2})}}\ \ &lt;0,04\ ou\ 4\%\textstyle }
 La très petite “contraction” d'un mélange d'alcools faibles peut être négative : le changement de courbure du graphe de Ρ de T explique cela. S'il n'y avait ni retrait ni expansion la courbe serait droite.
-Calcul d'un volume et d'un titre
-Si on cherche un volume et un titre il faut appliquer une méthode itérative ; c'est-à-dire évaluer le volume au moyen de l'approximation V = V1+V2 ,puis le titre approché avec l'expression de TV et, avec la table, la masse volumique. En déduire une meilleure évaluation du volume avec l'expression de PV et continuer jusqu'à obtenir deux valeurs du titre égales à l'incertitude près (au mieux 0,05° si les composants du mélange sont titrés à l'alcoomètre).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Calcul_des_titres_et_des_volumes_d'alcools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calcul_des_titres_et_des_volumes_d%27alcools</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Alcoométrie volumique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Calcul d'un volume et d'un titre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si on cherche un volume et un titre il faut appliquer une méthode itérative ; c'est-à-dire évaluer le volume au moyen de l'approximation V = V1+V2 ,puis le titre approché avec l'expression de TV et, avec la table, la masse volumique. En déduire une meilleure évaluation du volume avec l'expression de PV et continuer jusqu'à obtenir deux valeurs du titre égales à l'incertitude près (au mieux 0,05° si les composants du mélange sont titrés à l'alcoomètre).
 Exemple : à 20 °C, que faut il verser dans une bonbonne de dix litres à moitié pleine d'alcool à 70° pour la remplir d'alcool à 45° ?
 V2 = 5 . . . . . T2 = 20 . .. . P2 = 97356 ←- (ne serait-ce pas le titre d'un alcool à 20% au lieu de celui de 70% (88556)) ?
 V2 = 5,1025 . T2 = 19,60 . P2 = 97399
